--- a/users.xlsx
+++ b/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\viaje\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0205FAE-24B6-4FFD-B9D3-A19055F3AFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197D8693-0F2D-490D-BC7E-42A3044D8B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -552,7 +552,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -630,22 +632,22 @@
         <v>19</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -683,10 +685,10 @@
         <v>20</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -736,10 +738,10 @@
         <v>30</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -789,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -842,10 +844,10 @@
         <v>32</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -895,10 +897,10 @@
         <v>34</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -948,13 +950,13 @@
         <v>47</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -1001,22 +1003,22 @@
         <v>18</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -1054,7 +1056,7 @@
         <v>17</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1107,10 +1109,10 @@
         <v>44</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -1160,10 +1162,10 @@
         <v>45</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -1213,10 +1215,10 @@
         <v>46</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -1263,14 +1265,14 @@
         <v>123123</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f t="shared" ref="D12:D18" si="0">PROPER(B14)</f>
+        <f t="shared" ref="D14:D18" si="0">PROPER(B14)</f>
         <v>Matias</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1321,10 +1323,10 @@
         <v>Antonia</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1375,10 +1377,10 @@
         <v>Francisco</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1429,10 +1431,10 @@
         <v>Silvia</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1483,10 +1485,10 @@
         <v>Rodrigo</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
